--- a/biology/Médecine/Commission_Marescaux/Commission_Marescaux.xlsx
+++ b/biology/Médecine/Commission_Marescaux/Commission_Marescaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La commission Marescaux est une commission présidée par le professeur Jacques Marescaux et mise en place en décembre 2008[1] par le président de la République Nicolas Sarkozy pour faire des propositions sur l'avenir des CHU (Centre Hospitalier Universitaire). 
-La commission a remis son rapport en mai 2009[2]. Il comporte « six propositions pour que les CHU répondent mieux aux attentes des malades les plus lourdement atteints, soient mieux gérés, soient plus attractifs pour les meilleurs médecins et que leurs performances en recherche biomédicale soient fortement stimulées. »[3],[4]. Il permet notamment la création de cinq Instituts hospitalo-universitaires (IHU)[5] annoncée par Nicolas Sarkozy, le 18 septembre 2009, dans le cadre du grand emprunt[6]. La commission « Marescaux-II » remet en avril 2010 une ébauche du cahier des charges pour les IHU[6]. Le 30 mars 2011, six IHU lauréats sont retenus[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commission Marescaux est une commission présidée par le professeur Jacques Marescaux et mise en place en décembre 2008 par le président de la République Nicolas Sarkozy pour faire des propositions sur l'avenir des CHU (Centre Hospitalier Universitaire). 
+La commission a remis son rapport en mai 2009. Il comporte « six propositions pour que les CHU répondent mieux aux attentes des malades les plus lourdement atteints, soient mieux gérés, soient plus attractifs pour les meilleurs médecins et que leurs performances en recherche biomédicale soient fortement stimulées. »,. Il permet notamment la création de cinq Instituts hospitalo-universitaires (IHU) annoncée par Nicolas Sarkozy, le 18 septembre 2009, dans le cadre du grand emprunt. La commission « Marescaux-II » remet en avril 2010 une ébauche du cahier des charges pour les IHU. Le 30 mars 2011, six IHU lauréats sont retenus.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Michèle Barzach, ancienne ministre de la Santé, présidente de l'association « Les Amis du Fonds mondial Europe » ;
 Bernard Debré, PU-PH, député de Paris ;
